--- a/2025/8XP_BiCMOS项目/2025_2_15表格对比.xlsx
+++ b/2025/8XP_BiCMOS项目/2025_2_15表格对比.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\workfile\2025\8XP_BiCMOS项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EFE9D-A7CB-447A-826E-2758FAE82F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF6563F-CECC-49D6-9A2E-1A744185F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="5" sqref="A8:XFD8 A7:XFD7 A6:XFD6 A10:XFD10 A11:XFD11 A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
